--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C525172A-FEA4-4CA2-BA12-B45954AB321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B51F57-9455-44C9-A013-B631F67043B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>FTE-*</t>
+  </si>
+  <si>
+    <t>FTE-*,-FTE-ELC*</t>
+  </si>
+  <si>
+    <t>Fuel_Tech-FE</t>
+  </si>
+  <si>
+    <t>FTE-ELC*</t>
+  </si>
+  <si>
+    <t>Fuel_Tech-Elc</t>
   </si>
 </sst>
 </file>
@@ -973,10 +985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F39" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1556,7 @@
         <v>124</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" ref="G29:G38" si="0">F29</f>
+        <f t="shared" ref="G29:G40" si="0">F29</f>
         <v>Comm Appl</v>
       </c>
     </row>
@@ -1681,6 +1693,30 @@
       <c r="G38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tra Public</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Fuel_Tech-FE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Fuel_Tech-Elc</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B51F57-9455-44C9-A013-B631F67043B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F31561-7981-44AC-AAB3-C3753A0E28A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>Fuel_Tech-Elc</t>
+  </si>
+  <si>
+    <t>REF*</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>Oil_Ref</t>
   </si>
 </sst>
 </file>
@@ -985,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F40"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,9 +1363,6 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" t="s">
         <v>82</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>124</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" ref="G29:G40" si="0">F29</f>
+        <f t="shared" ref="G29:G41" si="0">F29</f>
         <v>Comm Appl</v>
       </c>
     </row>
@@ -1717,6 +1723,21 @@
       <c r="G40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Fuel_Tech-Elc</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Oil_Ref</v>
       </c>
     </row>
   </sheetData>
